--- a/Framework_DX11/Client/Bin/DataFiles/NPC_Script.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/NPC_Script.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{48B68D28-298C-4DC1-AA28-B6BC89B3D29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{473EBD47-34A2-49F1-9D1E-4757EA828393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{715B7DBA-FC7E-4AF5-950B-C4B161820DB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{715B7DBA-FC7E-4AF5-950B-C4B161820DB3}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC_Script" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
   <si>
     <t>_Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,13 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테스트_소피아_0</t>
-  </si>
-  <si>
-    <t>테스트_소피아_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>테스트_소피아_1</t>
   </si>
   <si>
@@ -148,6 +141,46 @@
   </si>
   <si>
     <t>. . .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제미니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세상에 . . .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너. . 는 어떻게 하고 싶어? 네가 결정해야 해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그녀를 도와 준다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그녀를 내버려 둔다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소피아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>. . . 고마워요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시몬 마누스 . . .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그를 쓰러트리고 나에게 평온을 선물해줘 . . .</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +237,22 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -271,7 +320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -291,6 +340,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -627,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F7A55B-AD46-42D6-9849-121AC319E7DC}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -672,13 +727,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -692,13 +747,13 @@
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -712,13 +767,13 @@
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -732,13 +787,13 @@
         <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -749,16 +804,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -769,116 +824,196 @@
         <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>26</v>
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="D13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>3</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="E15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="C16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>26</v>
+      <c r="E16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Framework_DX11/Client/Bin/DataFiles/NPC_Script.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/NPC_Script.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{473EBD47-34A2-49F1-9D1E-4757EA828393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B8E6F4-553B-4F21-928D-0A33D8779DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{715B7DBA-FC7E-4AF5-950B-C4B161820DB3}"/>
+    <workbookView xWindow="29295" yWindow="810" windowWidth="17730" windowHeight="11385" xr2:uid="{715B7DBA-FC7E-4AF5-950B-C4B161820DB3}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC_Script" sheetId="1" r:id="rId1"/>
@@ -160,10 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그녀를 내버려 둔다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,6 +177,10 @@
   </si>
   <si>
     <t>그를 쓰러트리고 나에게 평온을 선물해줘 . . .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -685,7 +685,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -843,14 +843,14 @@
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>32</v>
+      <c r="C8" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>24</v>
@@ -864,10 +864,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>24</v>
@@ -884,10 +884,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>24</v>
@@ -904,10 +904,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>24</v>

--- a/Framework_DX11/Client/Bin/DataFiles/NPC_Script.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/NPC_Script.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B8E6F4-553B-4F21-928D-0A33D8779DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D8225AC-C501-4300-80F8-CD2D161FCEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29295" yWindow="810" windowWidth="17730" windowHeight="11385" xr2:uid="{715B7DBA-FC7E-4AF5-950B-C4B161820DB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{715B7DBA-FC7E-4AF5-950B-C4B161820DB3}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC_Script" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="47">
   <si>
     <t>_Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,40 @@
   </si>
   <si>
     <t>SELECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_FunctionA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_FunctionB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_FunctionC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별바라기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용할 기능을 선택하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점을 이용한다</t>
+  </si>
+  <si>
+    <t>보관함을 이용한다</t>
+  </si>
+  <si>
+    <t>다른 별바라기로 이동한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -291,7 +325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -314,13 +348,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -346,6 +391,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -682,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F7A55B-AD46-42D6-9849-121AC319E7DC}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -694,9 +748,10 @@
     <col min="2" max="2" width="14.875" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="6" width="51.625" customWidth="1"/>
+    <col min="7" max="9" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -715,8 +770,17 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -735,8 +799,17 @@
       <c r="F2" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -755,8 +828,17 @@
       <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -775,8 +857,17 @@
       <c r="F4" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -795,8 +886,17 @@
       <c r="F5" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -815,8 +915,17 @@
       <c r="F6" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -835,8 +944,17 @@
       <c r="F7" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -855,8 +973,17 @@
       <c r="F8" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -875,8 +1002,17 @@
       <c r="F9" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -895,8 +1031,17 @@
       <c r="F10" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -915,8 +1060,17 @@
       <c r="F11" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -935,8 +1089,17 @@
       <c r="F12" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -955,8 +1118,17 @@
       <c r="F13" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -975,8 +1147,17 @@
       <c r="F14" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>3</v>
       </c>
@@ -995,8 +1176,17 @@
       <c r="F15" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>3</v>
       </c>
@@ -1014,6 +1204,44 @@
       </c>
       <c r="F16" s="6" t="s">
         <v>24</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>4</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Framework_DX11/Client/Bin/DataFiles/NPC_Script.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/NPC_Script.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D8225AC-C501-4300-80F8-CD2D161FCEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64108EC0-AF20-4F88-B970-9E914B951E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{715B7DBA-FC7E-4AF5-950B-C4B161820DB3}"/>
   </bookViews>
@@ -136,10 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>승자를 결정하는 건, 우리의 푸른 요정이었어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>. . .</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,6 +211,10 @@
   </si>
   <si>
     <t>다른 별바라기로 이동한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승자를 결정하는 것은 우리의 푸른 요정이었어.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -739,7 +739,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -771,13 +771,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -904,10 +904,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>24</v>
@@ -933,10 +933,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>24</v>
@@ -962,13 +962,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>24</v>
@@ -991,10 +991,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>24</v>
@@ -1020,10 +1020,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>24</v>
@@ -1049,10 +1049,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>24</v>
@@ -1084,7 +1084,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>24</v>
@@ -1139,7 +1139,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>24</v>
@@ -1220,28 +1220,28 @@
         <v>4</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="E17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="F17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="11" t="s">
+      <c r="I17" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Framework_DX11/Client/Bin/DataFiles/NPC_Script.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/NPC_Script.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64108EC0-AF20-4F88-B970-9E914B951E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E620D7C-9744-464A-8A1A-E02B3D4C965C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{715B7DBA-FC7E-4AF5-950B-C4B161820DB3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{715B7DBA-FC7E-4AF5-950B-C4B161820DB3}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC_Script" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="59">
   <si>
     <t>_Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,156 +65,196 @@
     <t>제미니</t>
   </si>
   <si>
-    <t>제미니</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소피아</t>
   </si>
   <si>
-    <t>소피아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시몬 마누스</t>
   </si>
   <si>
-    <t>시몬 마누스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>결국 이렇게 되었군.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소피아가 없었다면 버티지 못했을 거야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마음을 읽는 능력은 나에겐 저주였다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트_소피아_1</t>
-  </si>
-  <si>
-    <t>테스트_소피아_1</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세상에 . . .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_FunctionA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_FunctionB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_FunctionC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별바라기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용할 기능을 선택하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점을 이용한다</t>
+  </si>
+  <si>
+    <t>보관함을 이용한다</t>
+  </si>
+  <si>
+    <t>다른 별바라기로 이동한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>귀뚜라미형 인도자 자동인형 제미니 작동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일어나 피노키오</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제미니 </t>
   </si>
   <si>
     <t>지금 도시의 인형들이 폭주하여 폭동이 일어났어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사건의 원인을 찾아야 해</t>
-  </si>
-  <si>
-    <t>모든 인형들이 사람들을 공격하고 있고 강력한 괴물도 깨어났어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단단히 준비해야 해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>. . .</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제미니</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세상에 . . .</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>너. . 는 어떻게 하고 싶어? 네가 결정해야 해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그녀를 도와 준다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그녀를 내버려 둔다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소피아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>. . . 고마워요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시몬 마누스 . . .</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그를 쓰러트리고 나에게 평온을 선물해줘 . . .</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오랜만의 의뢰니 단단히 준비하고 가자고</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제발 . . . </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">살려줘 . . </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 원흉을 해치워 달라는 의뢰를 보내왔어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소피아 라는 여자가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너무 괴로워... 벗어나고 싶어 . . .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그를 쓰러뜨리고 나에게 안식을 . . .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그녀는 아직 살고 싶어하는 것 같지만 . . . 그렇지만 . . .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어 . . . 어쩌지? 난 모르겠어. 이걸 어떻게 결정해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너 . . . 는 어떻게 하고 싶어? 네가 결정해야 해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그녀의 소망을 어길 수도 있지만 . . . </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택은 너에게 맡길게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그녀를 돕지 않고 살려둘지 아니면 그녀를 돕고 안식을 선물할지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그녀를 돕는다</t>
+  </si>
+  <si>
+    <t>그녀를 돕지 않는다</t>
   </si>
   <si>
     <t>SELECT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_FunctionA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_FunctionB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_FunctionC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>별바라기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용할 기능을 선택하세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점을 이용한다</t>
-  </si>
-  <si>
-    <t>보관함을 이용한다</t>
-  </si>
-  <si>
-    <t>다른 별바라기로 이동한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승자를 결정하는 것은 우리의 푸른 요정이었어.</t>
+  </si>
+  <si>
+    <t>. . . 고마워요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래. 그것이 그녀의 소망이었겠지.</t>
+  </si>
+  <si>
+    <t>내버려 둔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안식을 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승자를 결정하는건 . . . 우리의 푸른 요정이었어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 소피아가 의지하는 인형이라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔직히 질투나더군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소피아 . . . 그녀를 어떻게 할 것인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결국 이 손으로도 쥘 수 없는 것이었나 . . .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>. . .고마워요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">너무 오래 갇혀 있었어요. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고통 없는 순간이 기억나지 않을 정도로 . . .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">내 에르고를 가져가요. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신과 끝까지 함께할게요 . . .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자 이제 마무리 할 시간이야 피노키오.</t>
+  </si>
+  <si>
+    <t>지금까지 수고했어. . .</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,7 +405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -400,6 +440,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -736,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F7A55B-AD46-42D6-9849-121AC319E7DC}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -771,13 +814,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -785,28 +828,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -820,22 +863,22 @@
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -843,28 +886,28 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -878,80 +921,80 @@
         <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>25</v>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -959,28 +1002,28 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>31</v>
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -988,28 +1031,28 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1017,28 +1060,28 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1046,202 +1089,492 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>24</v>
+      <c r="E11" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>25</v>
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>2</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
         <v>3</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <v>5</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>3</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
-        <v>4</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>44</v>
+      <c r="E27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Framework_DX11/Client/Bin/DataFiles/NPC_Script.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/NPC_Script.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E620D7C-9744-464A-8A1A-E02B3D4C965C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD89A7F6-A288-4D23-8F9F-75E2214B21FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{715B7DBA-FC7E-4AF5-950B-C4B161820DB3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="79">
   <si>
     <t>_Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +256,69 @@
   <si>
     <t>지금까지 수고했어. . .</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialog_Sophia_F00_S2_text_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialog_Gemini_E000_S1_text_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialog_Sophia_mstB_L01_S1_text_1</t>
+  </si>
+  <si>
+    <t>Dialog_Sophia_mstB_L01_S1_1_text_1</t>
+  </si>
+  <si>
+    <t>Dialog_Sophia_mstB_L01_S1_2_text_1</t>
+  </si>
+  <si>
+    <t>Dialog_Sophia_mstB_L01_S1_3_text_1-01</t>
+  </si>
+  <si>
+    <t>Dialog_Sophia_mstB_L01_S1_4_text_1</t>
+  </si>
+  <si>
+    <t>Dialog_Sophia_mstB_L01_S1_5_text_1</t>
+  </si>
+  <si>
+    <t>Dialog_Sophia_mstB_L01_S1_6_text_1</t>
+  </si>
+  <si>
+    <t>Dialog_Sophia_mstB_L01_S6_text_1</t>
+  </si>
+  <si>
+    <t>Dialog_SimonManus_L01_S1_text_1</t>
+  </si>
+  <si>
+    <t>Dialog_SimonManus_L01_S1_1_text_1</t>
+  </si>
+  <si>
+    <t>Dialog_SimonManus_L01_S1_4_text_1</t>
+  </si>
+  <si>
+    <t>Dialog_SimonManus_L01_S2_text_1</t>
+  </si>
+  <si>
+    <t>Dialog_SimonManus_L01_S3_text_1</t>
+  </si>
+  <si>
+    <t>Dialog_SimonManus_L01_S5_3_text_1</t>
+  </si>
+  <si>
+    <t>Dialog_Sophia_mstB_L01_S6_1_text_1</t>
+  </si>
+  <si>
+    <t>Dialog_Sophia_mstB_L01_S4_2_text_1_ALT</t>
+  </si>
+  <si>
+    <t>Dialog_Sophia_mstB_L01_S3_4_text_1</t>
   </si>
 </sst>
 </file>
@@ -779,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F7A55B-AD46-42D6-9849-121AC319E7DC}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -790,11 +853,12 @@
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="14.875" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="6" width="51.625" customWidth="1"/>
-    <col min="7" max="9" width="24.875" customWidth="1"/>
+    <col min="4" max="5" width="51.625" customWidth="1"/>
+    <col min="6" max="9" width="17.25" customWidth="1"/>
+    <col min="10" max="10" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -822,8 +886,11 @@
       <c r="I1" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -851,8 +918,11 @@
       <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -880,8 +950,11 @@
       <c r="I3" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -909,8 +982,11 @@
       <c r="I4" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -938,8 +1014,11 @@
       <c r="I5" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -967,8 +1046,11 @@
       <c r="I6" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -996,8 +1078,11 @@
       <c r="I7" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -1025,8 +1110,11 @@
       <c r="I8" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -1054,8 +1142,11 @@
       <c r="I9" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1083,8 +1174,11 @@
       <c r="I10" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -1112,8 +1206,11 @@
       <c r="I11" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -1141,8 +1238,11 @@
       <c r="I12" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -1170,8 +1270,11 @@
       <c r="I13" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1199,8 +1302,11 @@
       <c r="I14" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -1228,8 +1334,11 @@
       <c r="I15" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -1257,8 +1366,11 @@
       <c r="I16" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -1286,8 +1398,11 @@
       <c r="I17" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J17" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -1315,8 +1430,11 @@
       <c r="I18" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>2</v>
       </c>
@@ -1344,8 +1462,11 @@
       <c r="I19" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2</v>
       </c>
@@ -1373,8 +1494,11 @@
       <c r="I20" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>2</v>
       </c>
@@ -1402,8 +1526,11 @@
       <c r="I21" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J21" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>3</v>
       </c>
@@ -1431,8 +1558,11 @@
       <c r="I22" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -1460,8 +1590,11 @@
       <c r="I23" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>3</v>
       </c>
@@ -1489,8 +1622,11 @@
       <c r="I24" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>4</v>
       </c>
@@ -1518,8 +1654,11 @@
       <c r="I25" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J25" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>4</v>
       </c>
@@ -1547,8 +1686,11 @@
       <c r="I26" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>5</v>
       </c>
@@ -1575,6 +1717,9 @@
       </c>
       <c r="I27" s="11" t="s">
         <v>21</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Framework_DX11/Client/Bin/DataFiles/NPC_Script.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/NPC_Script.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD89A7F6-A288-4D23-8F9F-75E2214B21FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{275F754C-DE96-46CE-A261-4DDA5D5E6287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{715B7DBA-FC7E-4AF5-950B-C4B161820DB3}"/>
   </bookViews>
@@ -262,63 +262,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dialog_Sophia_F00_S2_text_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialog_Gemini_E000_S1_text_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialog_Sophia_mstB_L01_S1_text_1</t>
-  </si>
-  <si>
-    <t>Dialog_Sophia_mstB_L01_S1_1_text_1</t>
-  </si>
-  <si>
-    <t>Dialog_Sophia_mstB_L01_S1_2_text_1</t>
-  </si>
-  <si>
-    <t>Dialog_Sophia_mstB_L01_S1_3_text_1-01</t>
-  </si>
-  <si>
-    <t>Dialog_Sophia_mstB_L01_S1_4_text_1</t>
-  </si>
-  <si>
-    <t>Dialog_Sophia_mstB_L01_S1_5_text_1</t>
-  </si>
-  <si>
-    <t>Dialog_Sophia_mstB_L01_S1_6_text_1</t>
-  </si>
-  <si>
-    <t>Dialog_Sophia_mstB_L01_S6_text_1</t>
-  </si>
-  <si>
-    <t>Dialog_SimonManus_L01_S1_text_1</t>
-  </si>
-  <si>
-    <t>Dialog_SimonManus_L01_S1_1_text_1</t>
-  </si>
-  <si>
-    <t>Dialog_SimonManus_L01_S1_4_text_1</t>
-  </si>
-  <si>
-    <t>Dialog_SimonManus_L01_S2_text_1</t>
-  </si>
-  <si>
-    <t>Dialog_SimonManus_L01_S3_text_1</t>
-  </si>
-  <si>
-    <t>Dialog_SimonManus_L01_S5_3_text_1</t>
-  </si>
-  <si>
-    <t>Dialog_Sophia_mstB_L01_S6_1_text_1</t>
-  </si>
-  <si>
-    <t>Dialog_Sophia_mstB_L01_S4_2_text_1_ALT</t>
-  </si>
-  <si>
-    <t>Dialog_Sophia_mstB_L01_S3_4_text_1</t>
+    <t>Dialog_Sophia_F00_S2_text_1.wav</t>
+  </si>
+  <si>
+    <t>Dialog_Gemini_E000_S1_text_1.wav</t>
+  </si>
+  <si>
+    <t>Dialog_Sophia_mstB_L01_S1_text_1.wav</t>
+  </si>
+  <si>
+    <t>Dialog_Sophia_mstB_L01_S1_1_text_1.wav</t>
+  </si>
+  <si>
+    <t>Dialog_Sophia_mstB_L01_S1_2_text_1.wav</t>
+  </si>
+  <si>
+    <t>Dialog_Sophia_mstB_L01_S1_3_text_1-01.wav</t>
+  </si>
+  <si>
+    <t>Dialog_Sophia_mstB_L01_S1_4_text_1.wav</t>
+  </si>
+  <si>
+    <t>Dialog_Sophia_mstB_L01_S1_5_text_1.wav</t>
+  </si>
+  <si>
+    <t>Dialog_Sophia_mstB_L01_S1_6_text_1.wav</t>
+  </si>
+  <si>
+    <t>Dialog_Sophia_mstB_L01_S6_text_1.wav</t>
+  </si>
+  <si>
+    <t>Dialog_SimonManus_L01_S1_text_1.wav</t>
+  </si>
+  <si>
+    <t>Dialog_SimonManus_L01_S1_1_text_1.wav</t>
+  </si>
+  <si>
+    <t>Dialog_SimonManus_L01_S1_4_text_1.wav</t>
+  </si>
+  <si>
+    <t>Dialog_SimonManus_L01_S2_text_1.wav</t>
+  </si>
+  <si>
+    <t>Dialog_SimonManus_L01_S3_text_1.wav</t>
+  </si>
+  <si>
+    <t>Dialog_SimonManus_L01_S5_3_text_1.wav</t>
+  </si>
+  <si>
+    <t>Dialog_Sophia_mstB_L01_S6_1_text_1.wav</t>
+  </si>
+  <si>
+    <t>Dialog_Sophia_mstB_L01_S4_2_text_1_ALT.wav</t>
+  </si>
+  <si>
+    <t>Dialog_Sophia_mstB_L01_S3_4_text_1.wav</t>
   </si>
 </sst>
 </file>
@@ -845,7 +843,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
